--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il16-Kcnj10.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Il16-Kcnj10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.267595333333334</v>
+        <v>3.748362666666667</v>
       </c>
       <c r="H2">
-        <v>24.802786</v>
+        <v>11.245088</v>
       </c>
       <c r="I2">
-        <v>0.3656664502891759</v>
+        <v>0.2072014058556041</v>
       </c>
       <c r="J2">
-        <v>0.3656664502891758</v>
+        <v>0.2072014058556041</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.03444033333333334</v>
+        <v>0.11448</v>
       </c>
       <c r="N2">
-        <v>0.103321</v>
+        <v>0.34344</v>
       </c>
       <c r="O2">
-        <v>0.07903013855382061</v>
+        <v>0.208044332391165</v>
       </c>
       <c r="P2">
-        <v>0.07903013855382061</v>
+        <v>0.208044332391165</v>
       </c>
       <c r="Q2">
-        <v>0.2847387391451112</v>
+        <v>0.42911255808</v>
       </c>
       <c r="R2">
-        <v>2.562648652306001</v>
+        <v>3.86201302272</v>
       </c>
       <c r="S2">
-        <v>0.02889867023083733</v>
+        <v>0.04310707815173999</v>
       </c>
       <c r="T2">
-        <v>0.02889867023083732</v>
+        <v>0.04310707815174</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,51 +596,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.267595333333334</v>
+        <v>3.748362666666667</v>
       </c>
       <c r="H3">
-        <v>24.802786</v>
+        <v>11.245088</v>
       </c>
       <c r="I3">
-        <v>0.3656664502891759</v>
+        <v>0.2072014058556041</v>
       </c>
       <c r="J3">
-        <v>0.3656664502891758</v>
+        <v>0.2072014058556041</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.401347</v>
+        <v>0.03444033333333333</v>
       </c>
       <c r="N3">
-        <v>1.204041</v>
+        <v>0.103321</v>
       </c>
       <c r="O3">
-        <v>0.9209698614461793</v>
+        <v>0.06258836613960971</v>
       </c>
       <c r="P3">
-        <v>0.9209698614461794</v>
+        <v>0.06258836613960972</v>
       </c>
       <c r="Q3">
-        <v>3.318174584247333</v>
+        <v>0.1290948596942222</v>
       </c>
       <c r="R3">
-        <v>29.863571258226</v>
+        <v>1.161853737248</v>
       </c>
       <c r="S3">
-        <v>0.3367677800583385</v>
+        <v>0.01296839745433242</v>
       </c>
       <c r="T3">
-        <v>0.3367677800583385</v>
+        <v>0.01296839745433242</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,46 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.10830433333333</v>
+        <v>3.748362666666667</v>
       </c>
       <c r="H4">
-        <v>33.324913</v>
+        <v>11.245088</v>
       </c>
       <c r="I4">
-        <v>0.491307816908375</v>
+        <v>0.2072014058556041</v>
       </c>
       <c r="J4">
-        <v>0.491307816908375</v>
+        <v>0.2072014058556041</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.03444033333333334</v>
+        <v>0.401347</v>
       </c>
       <c r="N4">
-        <v>0.103321</v>
+        <v>1.204041</v>
       </c>
       <c r="O4">
-        <v>0.07903013855382061</v>
+        <v>0.7293673014692251</v>
       </c>
       <c r="P4">
-        <v>0.07903013855382061</v>
+        <v>0.7293673014692252</v>
       </c>
       <c r="Q4">
-        <v>0.3825737040081111</v>
+        <v>1.504394111178667</v>
       </c>
       <c r="R4">
-        <v>3.443163336073</v>
+        <v>13.539547000608</v>
       </c>
       <c r="S4">
-        <v>0.03882812484284401</v>
+        <v>0.1511259302495317</v>
       </c>
       <c r="T4">
-        <v>0.03882812484284401</v>
+        <v>0.1511259302495317</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,45 +726,45 @@
         <v>33.324913</v>
       </c>
       <c r="I5">
-        <v>0.491307816908375</v>
+        <v>0.6140431114114622</v>
       </c>
       <c r="J5">
-        <v>0.491307816908375</v>
+        <v>0.6140431114114623</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.401347</v>
+        <v>0.11448</v>
       </c>
       <c r="N5">
-        <v>1.204041</v>
+        <v>0.34344</v>
       </c>
       <c r="O5">
-        <v>0.9209698614461793</v>
+        <v>0.208044332391165</v>
       </c>
       <c r="P5">
-        <v>0.9209698614461794</v>
+        <v>0.208044332391165</v>
       </c>
       <c r="Q5">
-        <v>4.458284619270332</v>
+        <v>1.27167868008</v>
       </c>
       <c r="R5">
-        <v>40.12456157343299</v>
+        <v>11.44510812072</v>
       </c>
       <c r="S5">
-        <v>0.452479692065531</v>
+        <v>0.1277481891729914</v>
       </c>
       <c r="T5">
-        <v>0.452479692065531</v>
+        <v>0.1277481891729914</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.233763666666666</v>
+        <v>11.10830433333333</v>
       </c>
       <c r="H6">
-        <v>9.701290999999999</v>
+        <v>33.324913</v>
       </c>
       <c r="I6">
-        <v>0.1430257328024492</v>
+        <v>0.6140431114114622</v>
       </c>
       <c r="J6">
-        <v>0.1430257328024492</v>
+        <v>0.6140431114114623</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -800,33 +800,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.03444033333333334</v>
+        <v>0.03444033333333333</v>
       </c>
       <c r="N6">
         <v>0.103321</v>
       </c>
       <c r="O6">
-        <v>0.07903013855382061</v>
+        <v>0.06258836613960971</v>
       </c>
       <c r="P6">
-        <v>0.07903013855382061</v>
+        <v>0.06258836613960972</v>
       </c>
       <c r="Q6">
-        <v>0.1113718986012222</v>
+        <v>0.382573704008111</v>
       </c>
       <c r="R6">
-        <v>1.002347087411</v>
+        <v>3.443163336072999</v>
       </c>
       <c r="S6">
-        <v>0.01130334348013929</v>
+        <v>0.03843195508252575</v>
       </c>
       <c r="T6">
-        <v>0.01130334348013929</v>
+        <v>0.03843195508252576</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.233763666666666</v>
+        <v>11.10830433333333</v>
       </c>
       <c r="H7">
-        <v>9.701290999999999</v>
+        <v>33.324913</v>
       </c>
       <c r="I7">
-        <v>0.1430257328024492</v>
+        <v>0.6140431114114622</v>
       </c>
       <c r="J7">
-        <v>0.1430257328024492</v>
+        <v>0.6140431114114623</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,22 +868,208 @@
         <v>1.204041</v>
       </c>
       <c r="O7">
-        <v>0.9209698614461793</v>
+        <v>0.7293673014692251</v>
       </c>
       <c r="P7">
-        <v>0.9209698614461794</v>
+        <v>0.7293673014692252</v>
       </c>
       <c r="Q7">
+        <v>4.458284619270332</v>
+      </c>
+      <c r="R7">
+        <v>40.12456157343299</v>
+      </c>
+      <c r="S7">
+        <v>0.4478629671559449</v>
+      </c>
+      <c r="T7">
+        <v>0.4478629671559451</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3.233763666666667</v>
+      </c>
+      <c r="H8">
+        <v>9.701291000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.1787554827329337</v>
+      </c>
+      <c r="J8">
+        <v>0.1787554827329337</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.11448</v>
+      </c>
+      <c r="N8">
+        <v>0.34344</v>
+      </c>
+      <c r="O8">
+        <v>0.208044332391165</v>
+      </c>
+      <c r="P8">
+        <v>0.208044332391165</v>
+      </c>
+      <c r="Q8">
+        <v>0.3702012645600001</v>
+      </c>
+      <c r="R8">
+        <v>3.331811381040001</v>
+      </c>
+      <c r="S8">
+        <v>0.03718906506643361</v>
+      </c>
+      <c r="T8">
+        <v>0.03718906506643362</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3.233763666666667</v>
+      </c>
+      <c r="H9">
+        <v>9.701291000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.1787554827329337</v>
+      </c>
+      <c r="J9">
+        <v>0.1787554827329337</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.03444033333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.103321</v>
+      </c>
+      <c r="O9">
+        <v>0.06258836613960971</v>
+      </c>
+      <c r="P9">
+        <v>0.06258836613960972</v>
+      </c>
+      <c r="Q9">
+        <v>0.1113718986012222</v>
+      </c>
+      <c r="R9">
+        <v>1.002347087411</v>
+      </c>
+      <c r="S9">
+        <v>0.01118801360275153</v>
+      </c>
+      <c r="T9">
+        <v>0.01118801360275154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3.233763666666667</v>
+      </c>
+      <c r="H10">
+        <v>9.701291000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.1787554827329337</v>
+      </c>
+      <c r="J10">
+        <v>0.1787554827329337</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.401347</v>
+      </c>
+      <c r="N10">
+        <v>1.204041</v>
+      </c>
+      <c r="O10">
+        <v>0.7293673014692251</v>
+      </c>
+      <c r="P10">
+        <v>0.7293673014692252</v>
+      </c>
+      <c r="Q10">
         <v>1.297861346325667</v>
       </c>
-      <c r="R7">
+      <c r="R10">
         <v>11.680752116931</v>
       </c>
-      <c r="S7">
-        <v>0.1317223893223099</v>
-      </c>
-      <c r="T7">
-        <v>0.13172238932231</v>
+      <c r="S10">
+        <v>0.1303784040637485</v>
+      </c>
+      <c r="T10">
+        <v>0.1303784040637485</v>
       </c>
     </row>
   </sheetData>
